--- a/xlsx/a69_f48_bUPPachuca.xlsx
+++ b/xlsx/a69_f48_bUPPachuca.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRANSPARENCIA UPP\SIPOT 3ER TRI 23\UPP 3ER TRI 2023 SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\CARGA PLATAFORMA\VOBO. 1\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DCDB0A6-CED2-41FA-806F-37E78169774C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC5C1D2-6772-4C8A-94CB-C23013BA126E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>46820</t>
   </si>
@@ -139,42 +139,77 @@
     <t>Nota</t>
   </si>
   <si>
+    <t>Ficha para Examen de Admisión UPP</t>
+  </si>
+  <si>
+    <t>Hola,
+Gracias por comunicarse, en atención a su solicitud se informa que la próxima convocatoria de admisión será publicada en la página web institucional de la Universidad Politécnica de Pachuca en el mes de febrero de 2024, a más tardar la última semana, para presentar evaluación diagnóstica (examen de ingreso) en:
+Mayo 2024  - Aspirantes de la Licenciatura en Médico Cirujano
+Julio 2024 - Aspirantes de Ingenierías y de la Licenciatura en Terapia Física
+Ponemos a su disposición el número telefónico 7715477510 ext. 2244 y 2213 para cualquier duda o aclaración.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.upp.edu.mx/serviciosescolares/?p=5189#comments </t>
+  </si>
+  <si>
     <t>Departamento de Servicios Escolares (UPP)</t>
   </si>
   <si>
-    <t>Me gustaría ser participe de su institución, por qué asumo que la carrera de médico cirujano brinda el conocimiento suficiente para dar a la sociedad ayuda necesaria, sus instalaciones son amplias y me encantaría comenzar una licenciatura con ayuda de ustedes.</t>
-  </si>
-  <si>
-    <t>Admisión para la Licenciatura en Médico Cirujano</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?p=5195#comments</t>
+    <t>Titulación Nivel Licenciatura/Ingeniería y Posgrado UPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitud título electrónico Lic. Médico Cirujano </t>
+  </si>
+  <si>
+    <t>Hola,
+Gracias por comunicarse, en atención a su solicitud se comparte el enlace en el que se encuentran disponibles los lineamientos para la emisión de título profesional electrónico para la Licenciatura en Médico Cirujano.
+http://www.upp.edu.mx/serviciosescolares/
+Ponemos a su disposición el número telefónico 7715477510 ext. 2247 para cualquier duda o aclaración.
+Quedo a sus órdenes, saludos cordiales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.upp.edu.mx/serviciosescolares/?p=5195#comment-32148 </t>
+  </si>
+  <si>
+    <t>Certificado Parcial de Estudios y/o Carta de Pasante UPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necesito una copia de mi certificado con las materias cursadas en la carrera y el promedio general </t>
+  </si>
+  <si>
+    <t>Hola,
+Se pide atentamente acudir al Departamento de Servicios Escolares para revisar el programa educativo y su avance académico así como para brindarle la información que usted requiere.
+Ponemos a su disposición el número telefónico 7715477510 ext. 2244 y 2213 para cualquier duda o aclaración.
+Quedo a sus órdenes, saludos cordiales.</t>
+  </si>
+  <si>
+    <t>https://www.upp.edu.mx/serviciosescolares/?page_id=1564</t>
+  </si>
+  <si>
+    <t>Convocatoria de Admisión para Ingenierías y Licenciatura en Terapia Física Enero – Abril 2024</t>
   </si>
   <si>
     <t>Información</t>
   </si>
   <si>
-    <t>Admisión para planes educativos cuatrimestrales</t>
-  </si>
-  <si>
-    <t>https://www.upp.edu.mx/serviciosescolares/?p=5189#comments</t>
-  </si>
-  <si>
     <t>Hola,
-Gracias por contactarnos, cuál es la carrera a la que dese ingresar?
-Ponemos a su disposición el siguiente correo para brindarle una mejor y oportuna atención servescolares@upp.edu.mx
-Saludos cordiales</t>
-  </si>
-  <si>
-    <t>Hola,
-Te invitamos a seguir el procedimiento de admisión, mismo que podrás consultar en esta publicación; con base a tus resultados obtenidos se determinará si puedes formar parte de la UPP, te eseamos el mejor de los exitos.
-Saludos</t>
+Gracias por comunicarse, la próxima convocatoria de admisión será publicada en la página web institucional de la Universidad Politécnica de Pachuca en el mes de febrero de 2024, a más tardar la última semana, para presentar evaluación diagnóstica (examen de ingreso) en Julio 2024.
+En la convocatoria se mencionan paso a paso las actividades a realizar y las fechas para efectuarlas.
+Ponemos a su disposición los siguientes datos de contacto para brindarle una mejor y oportuna atención:
+Teléfono 7715477510 ext. 2244 y 2213
+Quedo a sus órdenes, saludos cordiales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.upp.edu.mx/serviciosescolares/?p=5189#comments%20Convocatoria%20de%20Admisi%C3%B3n%20para%20Ingenier%C3%ADas%20y%20Licenciatura%20en%20Terapia%20F%C3%ADsica%20Enero%20%E2%80%93%20Abril%202024%20%E2%80%93%20Servicios%20Escolares%20(upp.edu.mx) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,30 +286,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -295,9 +344,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -335,7 +384,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -441,7 +490,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -583,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,14 +652,14 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" customWidth="1"/>
-    <col min="6" max="6" width="59.140625" customWidth="1"/>
-    <col min="7" max="7" width="61.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.5703125" customWidth="1"/>
     <col min="8" max="8" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -618,241 +667,313 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="C8" s="4">
-        <v>45199</v>
+        <v>45291</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6">
+        <v>15</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="3">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="J8" s="4">
-        <v>45209</v>
+        <v>45301</v>
       </c>
       <c r="K8" s="4">
-        <v>45209</v>
-      </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+        <v>45301</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2023</v>
       </c>
       <c r="B9" s="4">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="C9" s="4">
-        <v>45199</v>
+        <v>45291</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="3">
-        <v>6</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>39</v>
+      <c r="H9" s="6">
+        <v>5</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="J9" s="4">
-        <v>45209</v>
+        <v>45301</v>
       </c>
       <c r="K9" s="4">
-        <v>45209</v>
-      </c>
-      <c r="L9" s="2"/>
+        <v>45301</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="4">
+        <v>45301</v>
+      </c>
+      <c r="K10" s="4">
+        <v>45301</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45200</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="6">
+        <v>10</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="4">
+        <v>45301</v>
+      </c>
+      <c r="K11" s="4">
+        <v>45301</v>
+      </c>
+      <c r="L11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -865,8 +986,10 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" location="comments" xr:uid="{FA5FA0F2-A0A0-48D4-A28E-3A8F14696D7F}"/>
-    <hyperlink ref="G9" r:id="rId2" location="comments" xr:uid="{F44018F3-95D7-4899-9466-85B34740304F}"/>
+    <hyperlink ref="G9" r:id="rId1" location="comment-32148 " xr:uid="{04D0CD97-FA64-4F5B-A58D-0A763B368DFB}"/>
+    <hyperlink ref="G8" r:id="rId2" location="comments " xr:uid="{DE3FA0A6-6F97-41D0-BF08-350A7FE5D94F}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{AAA0A58C-620A-4F04-8046-F88EA2CB4752}"/>
+    <hyperlink ref="G11" r:id="rId4" location="comments%20Convocatoria%20de%20Admisi%C3%B3n%20para%20Ingenier%C3%ADas%20y%20Licenciatura%20en%20Terapia%20F%C3%ADsica%20Enero%20%E2%80%93%20Abril%202024%20%E2%80%93%20Servicios%20Escolares%20(upp.edu.mx) " xr:uid="{3E65F90A-D91B-4E17-9326-461D8D88FDB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
